--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_109.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_109.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.953139, 19.672232)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(45.48, 48.0)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07045454545454546</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'C', 'C']]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(80.022335, 83.702698)]</t>
+          <t>[['Ab', 'Eb:7', 'Ab'], ['Ab', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(34.41, 36.97)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:04:43.300000', '0:04:47.580000'), ('0:04:42.120000', '0:04:44.720000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:06.930000', '0:01:12.560000'), ('0:00:11.930000', '0:00:17.400000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1182170542635659</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['G:maj', 'C:maj', 'G/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(70.98, 80.44), (42.44, 44.36), (90.6, 101.18)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(243.44, 246.98), (21.94, 25.36), (7.22, 10.76)]</t>
+          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1369047619047619</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2003577817531306</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.014823, 12.241493)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:32.040000', '0:01:44.400000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:41.260000', '0:00:47.120000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2936507936507936</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G', 'C'], ['G', 'C', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G'], ['D', 'G', 'G', 'D/3']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(64.476575, 70.099405), (4.476213, 18.768095)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.440395, 6.126439), (76.889251, 81.614512)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2307692307692308</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
+          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.3, 17.78), (6.46, 12.08)]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(283.3, 287.58), (282.12, 284.72)]</t>
+          <t>[('0:00:16.860000', '0:00:24.540000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1287878787878788</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F/3', 'G/3', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(135.871449, 138.80365)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.088141, 27.709728)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(118.4, 122.04)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2626728110599078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(39.724104, 43.706326)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1426282051282051</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.24, 9.28)]</t>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4675324675324675</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(80.48, 93.6)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(33.92, 36.84)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:40.490000', '0:00:50.260000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:14.737663')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(28.82, 42.4)]</t>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(122.674, 126.958)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(93.1, 111.54)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(30.8, 45.3)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32), (61.48, 63.58)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(68.82, 77.92), (18.26, 24.82)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2932330827067669</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.581738, 30.271443)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(40.49, 47.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
